--- a/results/I3_N5_M2_T15_C150_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>856.1618841340396</v>
+        <v>521.4218841340303</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.764833041814827</v>
+        <v>1.152966608362965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.764833041814827</v>
+        <v>1.152966608362965</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>526.7000000000094</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.04</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,50 +590,6 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -813,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -923,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>5.183932901737304</v>
       </c>
     </row>
     <row r="6">
@@ -969,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,62 +966,6 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000006</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>184.05</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0900000000015</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>197.7250000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>200.3650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>189.8850000000014</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000072</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000072</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000072</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5400000000008</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.1650000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1255,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>108.45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>113.8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>111.3550000000008</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6949999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.6799999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4149999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6049999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6949999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6799999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4149999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6049999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>184.05</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>190.0900000000015</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>197.7250000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>200.3650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>189.8850000000014</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13.83999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.69499999999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.67999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.41499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.60499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>40.09000000000145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>47.72500000000144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>50.36500000000146</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.88500000000144</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1734,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1767,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +1844,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +1913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,86 +1965,9 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
